--- a/Code/Results/Cases/Case_9_61/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_61/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,46 +421,52 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.484379549925279</v>
+        <v>3.482477034787109</v>
       </c>
       <c r="C2">
-        <v>1.040289137763267</v>
+        <v>1.051766852499497</v>
       </c>
       <c r="D2">
-        <v>0.06851486750939273</v>
+        <v>0.06970866538506471</v>
       </c>
       <c r="E2">
-        <v>1.367128079582571</v>
+        <v>1.364406444337718</v>
       </c>
       <c r="F2">
-        <v>0.3213248855255699</v>
+        <v>0.3181175503735219</v>
       </c>
       <c r="G2">
-        <v>0.2158460518482244</v>
+        <v>0.1979244756278717</v>
       </c>
       <c r="H2">
-        <v>0.01263230116959607</v>
+        <v>0.01232734477975955</v>
       </c>
       <c r="I2">
-        <v>0.005383855742526755</v>
+        <v>0.005250776272808899</v>
       </c>
       <c r="J2">
-        <v>0.1920176515847487</v>
+        <v>0.2347014988156744</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.0883236954670803</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.01499170249682402</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -472,48 +478,54 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.8100627434167649</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.8029090763341458</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.038945344209878</v>
+        <v>3.03899303496172</v>
       </c>
       <c r="C3">
-        <v>0.9233429799239161</v>
+        <v>0.9232558759977394</v>
       </c>
       <c r="D3">
-        <v>0.06035932440634895</v>
+        <v>0.06096012007409257</v>
       </c>
       <c r="E3">
-        <v>1.193696497421243</v>
+        <v>1.191975966727583</v>
       </c>
       <c r="F3">
-        <v>0.2979526481321884</v>
+        <v>0.2971109279233062</v>
       </c>
       <c r="G3">
-        <v>0.200986489330063</v>
+        <v>0.1845834209571535</v>
       </c>
       <c r="H3">
-        <v>0.009378987984594064</v>
+        <v>0.009202478754576901</v>
       </c>
       <c r="I3">
-        <v>0.003624174173911143</v>
+        <v>0.003706196018725461</v>
       </c>
       <c r="J3">
-        <v>0.1902036504822249</v>
+        <v>0.2325739061209404</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.09407336391836019</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.01782031498821512</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -525,48 +537,54 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.7744400136185021</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.7737433436539902</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.765006910130296</v>
+        <v>2.766128880171493</v>
       </c>
       <c r="C4">
-        <v>0.8520708890144419</v>
+        <v>0.8451537287331234</v>
       </c>
       <c r="D4">
-        <v>0.05536347994597435</v>
+        <v>0.05561418749579872</v>
       </c>
       <c r="E4">
-        <v>1.087402394321558</v>
+        <v>1.086256378632967</v>
       </c>
       <c r="F4">
-        <v>0.2841143118871017</v>
+        <v>0.2845930571379753</v>
       </c>
       <c r="G4">
-        <v>0.1923030536397548</v>
+        <v>0.1767991370460251</v>
       </c>
       <c r="H4">
-        <v>0.007563391463973557</v>
+        <v>0.007453495599580751</v>
       </c>
       <c r="I4">
-        <v>0.002729256056286822</v>
+        <v>0.002910304115989248</v>
       </c>
       <c r="J4">
-        <v>0.1893883158484826</v>
+        <v>0.2313781060509186</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.09790982337427856</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.02003334016032102</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -578,48 +596,54 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.7541180967035501</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.7569666481343091</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.653220224600091</v>
+        <v>2.654753067931267</v>
       </c>
       <c r="C5">
-        <v>0.8247373505307678</v>
+        <v>0.8150360628073372</v>
       </c>
       <c r="D5">
-        <v>0.05340727592699324</v>
+        <v>0.05351520091234363</v>
       </c>
       <c r="E5">
-        <v>1.044105430297549</v>
+        <v>1.043185104436645</v>
       </c>
       <c r="F5">
-        <v>0.2781407859139549</v>
+        <v>0.2791467251793591</v>
       </c>
       <c r="G5">
-        <v>0.1884315882586094</v>
+        <v>0.17331069243901</v>
       </c>
       <c r="H5">
-        <v>0.00686435114138817</v>
+        <v>0.006778825205158379</v>
       </c>
       <c r="I5">
-        <v>0.002464018069296969</v>
+        <v>0.002690612867880304</v>
       </c>
       <c r="J5">
-        <v>0.1888956294272361</v>
+        <v>0.2306874019135421</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.09942642845537897</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.02104708802576194</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -631,48 +655,54 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.7447930020748288</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.74904982214737</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.634617103295739</v>
+        <v>2.636216503036223</v>
       </c>
       <c r="C6">
-        <v>0.8221519240811119</v>
+        <v>0.811907668443979</v>
       </c>
       <c r="D6">
-        <v>0.05317721303192968</v>
+        <v>0.05325717099591287</v>
       </c>
       <c r="E6">
-        <v>1.036902947873884</v>
+        <v>1.036019966899119</v>
       </c>
       <c r="F6">
-        <v>0.2766013979012669</v>
+        <v>0.2777188045621486</v>
       </c>
       <c r="G6">
-        <v>0.1872636372725651</v>
+        <v>0.1722371870452264</v>
       </c>
       <c r="H6">
-        <v>0.006749375062085228</v>
+        <v>0.006667770361621306</v>
       </c>
       <c r="I6">
-        <v>0.002498911110178526</v>
+        <v>0.002749776594898279</v>
       </c>
       <c r="J6">
-        <v>0.1885351602296126</v>
+        <v>0.2302940481126257</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.09953353707617296</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.0212161818474067</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -684,48 +714,54 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.7415476986953422</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.74611218093834</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.763409735827565</v>
+        <v>2.764493765711052</v>
       </c>
       <c r="C7">
-        <v>0.8570325654875148</v>
+        <v>0.8495258114587614</v>
       </c>
       <c r="D7">
-        <v>0.05559622005191756</v>
+        <v>0.05597675520104417</v>
       </c>
       <c r="E7">
-        <v>1.086779185818585</v>
+        <v>1.085596841958704</v>
       </c>
       <c r="F7">
-        <v>0.2825182625079563</v>
+        <v>0.2822767875057295</v>
       </c>
       <c r="G7">
-        <v>0.1907992049046001</v>
+        <v>0.17757188983596</v>
       </c>
       <c r="H7">
-        <v>0.007550036406547778</v>
+        <v>0.007436721426224424</v>
       </c>
       <c r="I7">
-        <v>0.002919518422106471</v>
+        <v>0.003141727945145334</v>
       </c>
       <c r="J7">
-        <v>0.1886097183791122</v>
+        <v>0.2270681503647083</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.09741671087101444</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.02000689930156435</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -737,48 +773,54 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.7492983680788825</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.7499425454243891</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.330753475643007</v>
+        <v>3.329404852531354</v>
       </c>
       <c r="C8">
-        <v>1.006984765897329</v>
+        <v>1.013061089512377</v>
       </c>
       <c r="D8">
-        <v>0.0660464279534807</v>
+        <v>0.06750374925892544</v>
       </c>
       <c r="E8">
-        <v>1.307226129473918</v>
+        <v>1.304726201940781</v>
       </c>
       <c r="F8">
-        <v>0.3111487851335539</v>
+        <v>0.3062409379986661</v>
       </c>
       <c r="G8">
-        <v>0.2087052363118218</v>
+        <v>0.1987614455647275</v>
       </c>
       <c r="H8">
-        <v>0.01146484012727164</v>
+        <v>0.01119248543279205</v>
       </c>
       <c r="I8">
-        <v>0.004966358149042449</v>
+        <v>0.0049551448514773</v>
       </c>
       <c r="J8">
-        <v>0.1903119377428766</v>
+        <v>0.2214655705912065</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.08949062327881396</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.01568192804850588</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -790,48 +832,54 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.7912433337065181</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.7786650202045564</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.440880866993041</v>
+        <v>4.433733158794439</v>
       </c>
       <c r="C9">
-        <v>1.296097109766833</v>
+        <v>1.332461063436085</v>
       </c>
       <c r="D9">
-        <v>0.08618655914302309</v>
+        <v>0.0893612995526496</v>
       </c>
       <c r="E9">
-        <v>1.742002785901391</v>
+        <v>1.736674045310508</v>
       </c>
       <c r="F9">
-        <v>0.3745260283794209</v>
+        <v>0.3621078066010739</v>
       </c>
       <c r="G9">
-        <v>0.2503390608064038</v>
+        <v>0.2384136251374329</v>
       </c>
       <c r="H9">
-        <v>0.0207736291169569</v>
+        <v>0.02009172524315561</v>
       </c>
       <c r="I9">
-        <v>0.01033979819973752</v>
+        <v>0.009512852541372574</v>
       </c>
       <c r="J9">
-        <v>0.1975795830419287</v>
+        <v>0.2252092907059478</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.07739066934139238</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.01129514374619589</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -843,48 +891,54 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.8954848569248526</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0.8618358986450119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.255457350032316</v>
+        <v>5.242861482652074</v>
       </c>
       <c r="C10">
-        <v>1.514111005837094</v>
+        <v>1.569533339812438</v>
       </c>
       <c r="D10">
-        <v>0.102619864177143</v>
+        <v>0.1079251488333881</v>
       </c>
       <c r="E10">
-        <v>1.961788003043807</v>
+        <v>1.954046602991923</v>
       </c>
       <c r="F10">
-        <v>0.4163654453674823</v>
+        <v>0.3939244326871147</v>
       </c>
       <c r="G10">
-        <v>0.2761516330751732</v>
+        <v>0.2765638597973634</v>
       </c>
       <c r="H10">
-        <v>0.02813553401505064</v>
+        <v>0.02705630326265096</v>
       </c>
       <c r="I10">
-        <v>0.01552100475381835</v>
+        <v>0.01386503850140652</v>
       </c>
       <c r="J10">
-        <v>0.2008860606020022</v>
+        <v>0.2067764877159846</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.06938476305594099</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.009759590688506847</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -896,48 +950,54 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.9576441414300518</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.8951089520993065</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.619225187635323</v>
+        <v>5.604333708238471</v>
       </c>
       <c r="C11">
-        <v>1.616997700459365</v>
+        <v>1.656201292966557</v>
       </c>
       <c r="D11">
-        <v>0.1234103412261902</v>
+        <v>0.1306015746417586</v>
       </c>
       <c r="E11">
-        <v>1.271775098558706</v>
+        <v>1.264635455167721</v>
       </c>
       <c r="F11">
-        <v>0.3713764937821722</v>
+        <v>0.3443670598090733</v>
       </c>
       <c r="G11">
-        <v>0.2279309467216422</v>
+        <v>0.2595345100802717</v>
       </c>
       <c r="H11">
-        <v>0.04341062313148214</v>
+        <v>0.04228171975100992</v>
       </c>
       <c r="I11">
-        <v>0.01747598099286751</v>
+        <v>0.01557406050480648</v>
       </c>
       <c r="J11">
-        <v>0.172588649228274</v>
+        <v>0.152140805430804</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.06442850701046832</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.00549980860081023</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -949,48 +1009,54 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.796329777675723</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.7239476165707686</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.754678870910254</v>
+        <v>5.739154319294641</v>
       </c>
       <c r="C12">
-        <v>1.649161237861506</v>
+        <v>1.671496576474965</v>
       </c>
       <c r="D12">
-        <v>0.1379549854078022</v>
+        <v>0.1457386769742612</v>
       </c>
       <c r="E12">
-        <v>0.7751304741526326</v>
+        <v>0.7690442593762583</v>
       </c>
       <c r="F12">
-        <v>0.3287447948195847</v>
+        <v>0.3028413755645332</v>
       </c>
       <c r="G12">
-        <v>0.1874582687537512</v>
+        <v>0.2318682226716007</v>
       </c>
       <c r="H12">
-        <v>0.07922499138646089</v>
+        <v>0.07813599265953286</v>
       </c>
       <c r="I12">
-        <v>0.01772927711592054</v>
+        <v>0.01573803448927791</v>
       </c>
       <c r="J12">
-        <v>0.1505370684444216</v>
+        <v>0.1275328868807151</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.06353284219888611</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.003454083582105749</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1002,48 +1068,54 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.6643959574037126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.5983642353649543</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.720832192558817</v>
+        <v>5.706066774695614</v>
       </c>
       <c r="C13">
-        <v>1.636946018399783</v>
+        <v>1.641782412002499</v>
       </c>
       <c r="D13">
-        <v>0.148776654964621</v>
+        <v>0.1555312513764449</v>
       </c>
       <c r="E13">
-        <v>0.3985466058253166</v>
+        <v>0.3937512722820458</v>
       </c>
       <c r="F13">
-        <v>0.283079046020859</v>
+        <v>0.2638720683414419</v>
       </c>
       <c r="G13">
-        <v>0.1483089278371637</v>
+        <v>0.1886566534115204</v>
       </c>
       <c r="H13">
-        <v>0.1321614954885746</v>
+        <v>0.1311818557223035</v>
       </c>
       <c r="I13">
-        <v>0.01694652739646951</v>
+        <v>0.01508164258659139</v>
       </c>
       <c r="J13">
-        <v>0.1307477033930127</v>
+        <v>0.1198035476649189</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.06435728998712698</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.002801446521990159</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1055,48 +1127,54 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.5399118568132337</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.4949757391567573</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.620491340651142</v>
+        <v>5.606841032320915</v>
       </c>
       <c r="C14">
-        <v>1.610079345710631</v>
+        <v>1.602362379436101</v>
       </c>
       <c r="D14">
-        <v>0.1547769778215127</v>
+        <v>0.1600136405523784</v>
       </c>
       <c r="E14">
-        <v>0.2077197839006786</v>
+        <v>0.2038213712309584</v>
       </c>
       <c r="F14">
-        <v>0.2499389706722823</v>
+        <v>0.2373589700271808</v>
       </c>
       <c r="G14">
-        <v>0.1219073555765249</v>
+        <v>0.1535025450837892</v>
       </c>
       <c r="H14">
-        <v>0.1796699237398371</v>
+        <v>0.1787882067783784</v>
       </c>
       <c r="I14">
-        <v>0.01603410538161043</v>
+        <v>0.01436142288926945</v>
       </c>
       <c r="J14">
-        <v>0.1180418786138162</v>
+        <v>0.1195701477283286</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.06545978329427538</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.003114358747863255</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1108,48 +1186,54 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.45725854598399</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.4313493594492854</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.559848386250735</v>
+        <v>5.546760336759121</v>
       </c>
       <c r="C15">
-        <v>1.596331475603336</v>
+        <v>1.585349426864241</v>
       </c>
       <c r="D15">
-        <v>0.1554346841102188</v>
+        <v>0.1599722125315708</v>
       </c>
       <c r="E15">
-        <v>0.1702605803148174</v>
+        <v>0.1666189308474415</v>
       </c>
       <c r="F15">
-        <v>0.2405923876525335</v>
+        <v>0.2305386235910447</v>
       </c>
       <c r="G15">
-        <v>0.1149961571045566</v>
+        <v>0.1422019621545303</v>
       </c>
       <c r="H15">
-        <v>0.1915624005287668</v>
+        <v>0.1907208785344068</v>
       </c>
       <c r="I15">
-        <v>0.01568146159152395</v>
+        <v>0.01412320975959869</v>
       </c>
       <c r="J15">
-        <v>0.115070265176108</v>
+        <v>0.1215581726620663</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.06583714037431854</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.00339262895177761</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1161,48 +1245,54 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.436344283740155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.4172353789943912</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.215114051038768</v>
+        <v>5.204751809986249</v>
       </c>
       <c r="C16">
-        <v>1.507837993819976</v>
+        <v>1.495724491824092</v>
       </c>
       <c r="D16">
-        <v>0.1458852429913691</v>
+        <v>0.1478759116055102</v>
       </c>
       <c r="E16">
-        <v>0.1666751606161228</v>
+        <v>0.1635722317814086</v>
       </c>
       <c r="F16">
-        <v>0.2314929905242877</v>
+        <v>0.2293970241216527</v>
       </c>
       <c r="G16">
-        <v>0.1115101769256768</v>
+        <v>0.1200671058824341</v>
       </c>
       <c r="H16">
-        <v>0.1765146929886328</v>
+        <v>0.175842458523789</v>
       </c>
       <c r="I16">
-        <v>0.01364941656067575</v>
+        <v>0.01253423314464097</v>
       </c>
       <c r="J16">
-        <v>0.117240884666316</v>
+        <v>0.143138739426572</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.06659996699374826</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.004649812157537347</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1214,48 +1304,54 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.4332892721282207</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.4342265188749792</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.00462652581291</v>
+        <v>4.995662582028501</v>
       </c>
       <c r="C17">
-        <v>1.454650171269634</v>
+        <v>1.447729218856011</v>
       </c>
       <c r="D17">
-        <v>0.1354032685289042</v>
+        <v>0.1366623729322356</v>
       </c>
       <c r="E17">
-        <v>0.2516062243936403</v>
+        <v>0.248527439334616</v>
       </c>
       <c r="F17">
-        <v>0.2418666090824857</v>
+        <v>0.2419002471090224</v>
       </c>
       <c r="G17">
-        <v>0.1224692064020729</v>
+        <v>0.1226127707793623</v>
       </c>
       <c r="H17">
-        <v>0.1378641547377129</v>
+        <v>0.1372659500215292</v>
       </c>
       <c r="I17">
-        <v>0.01261530683277101</v>
+        <v>0.01172483548794023</v>
       </c>
       <c r="J17">
-        <v>0.1255379094412206</v>
+        <v>0.1604723019820966</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.06718155889974975</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.005367234660806242</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1267,48 +1363,54 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.4737752218393041</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.4798016075919946</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.885318958484049</v>
+        <v>4.876902266671436</v>
       </c>
       <c r="C18">
-        <v>1.420918009558648</v>
+        <v>1.426016437501403</v>
       </c>
       <c r="D18">
-        <v>0.1229976314698291</v>
+        <v>0.1245168756871067</v>
       </c>
       <c r="E18">
-        <v>0.4857598312733842</v>
+        <v>0.4822580656410125</v>
       </c>
       <c r="F18">
-        <v>0.2721445894197601</v>
+        <v>0.2708006889194579</v>
       </c>
       <c r="G18">
-        <v>0.149666821902052</v>
+        <v>0.1442441390682561</v>
       </c>
       <c r="H18">
-        <v>0.08575578133977757</v>
+        <v>0.08516242536798302</v>
       </c>
       <c r="I18">
-        <v>0.01205783974684671</v>
+        <v>0.0112006520736232</v>
       </c>
       <c r="J18">
-        <v>0.1411984032725684</v>
+        <v>0.1794488027084356</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.06805199307589449</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.005950152066140857</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1320,48 +1422,54 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.5641748409270377</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.5659275438384128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.847819406394365</v>
+        <v>4.839215845972433</v>
       </c>
       <c r="C19">
-        <v>1.416263063920724</v>
+        <v>1.437743924720678</v>
       </c>
       <c r="D19">
-        <v>0.1110102322619184</v>
+        <v>0.1132696775775059</v>
       </c>
       <c r="E19">
-        <v>0.9209440129639006</v>
+        <v>0.9165581414966653</v>
       </c>
       <c r="F19">
-        <v>0.3158302222803826</v>
+        <v>0.3106580981005465</v>
       </c>
       <c r="G19">
-        <v>0.1889364720226396</v>
+        <v>0.1788410041985031</v>
       </c>
       <c r="H19">
-        <v>0.04325072386445328</v>
+        <v>0.04259230931517521</v>
       </c>
       <c r="I19">
-        <v>0.01243669166645134</v>
+        <v>0.01156854816918695</v>
       </c>
       <c r="J19">
-        <v>0.161792221357004</v>
+        <v>0.1995882636946291</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.06948065493829547</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.006982814634079126</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1373,48 +1481,54 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.6905630357491219</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.680752452979263</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.041214138347414</v>
+        <v>5.030319389847421</v>
       </c>
       <c r="C20">
-        <v>1.473892101164324</v>
+        <v>1.524913817284755</v>
       </c>
       <c r="D20">
-        <v>0.09919155337233576</v>
+        <v>0.1033511478069897</v>
       </c>
       <c r="E20">
-        <v>1.899563693568851</v>
+        <v>1.89263540213264</v>
       </c>
       <c r="F20">
-        <v>0.4001380803595538</v>
+        <v>0.3835920175770084</v>
       </c>
       <c r="G20">
-        <v>0.2643951878094626</v>
+        <v>0.2537490101931752</v>
       </c>
       <c r="H20">
-        <v>0.0260505267366935</v>
+        <v>0.02510387156258087</v>
       </c>
       <c r="I20">
-        <v>0.01468669858425997</v>
+        <v>0.01345663152742471</v>
       </c>
       <c r="J20">
-        <v>0.1973977327903427</v>
+        <v>0.2207065545091353</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.071014936763655</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.009691089653940388</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1426,48 +1540,54 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0.9252850702861508</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0.8803058879514793</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.667932530158737</v>
+        <v>5.651356464408991</v>
       </c>
       <c r="C21">
-        <v>1.640150126859396</v>
+        <v>1.703538952563861</v>
       </c>
       <c r="D21">
-        <v>0.1095112654045352</v>
+        <v>0.1184421956898944</v>
       </c>
       <c r="E21">
-        <v>2.227727547683386</v>
+        <v>2.217680422668678</v>
       </c>
       <c r="F21">
-        <v>0.445962118623541</v>
+        <v>0.4050694044577128</v>
       </c>
       <c r="G21">
-        <v>0.2972338976632756</v>
+        <v>0.3403782875755041</v>
       </c>
       <c r="H21">
-        <v>0.03331129766337027</v>
+        <v>0.03187823992646566</v>
       </c>
       <c r="I21">
-        <v>0.01919322698791603</v>
+        <v>0.01703966324507622</v>
       </c>
       <c r="J21">
-        <v>0.2065105691681168</v>
+        <v>0.159883054214788</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.06555707532681554</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.008918699059566215</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1479,48 +1599,54 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.014379181459134</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0.8968716489250426</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.077707945087752</v>
+        <v>6.057125454480854</v>
       </c>
       <c r="C22">
-        <v>1.742083230872765</v>
+        <v>1.812119942987124</v>
       </c>
       <c r="D22">
-        <v>0.1166495806416634</v>
+        <v>0.1290148700158795</v>
       </c>
       <c r="E22">
-        <v>2.391118868123769</v>
+        <v>2.379018673422394</v>
       </c>
       <c r="F22">
-        <v>0.4749625622348219</v>
+        <v>0.4169042563756733</v>
       </c>
       <c r="G22">
-        <v>0.3177420351461819</v>
+        <v>0.4037849585320856</v>
       </c>
       <c r="H22">
-        <v>0.03800206046680898</v>
+        <v>0.03622873296444951</v>
       </c>
       <c r="I22">
-        <v>0.02214048225939269</v>
+        <v>0.01924593038334343</v>
       </c>
       <c r="J22">
-        <v>0.2120973682973073</v>
+        <v>0.1265898978055766</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.06248387983704995</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.008719541271820397</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1532,48 +1658,54 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.069800985051245</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0.9014312150470403</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.85906325100018</v>
+        <v>5.840759171508012</v>
       </c>
       <c r="C23">
-        <v>1.680993695160112</v>
+        <v>1.748538107744878</v>
       </c>
       <c r="D23">
-        <v>0.1125185108429037</v>
+        <v>0.1226185031742517</v>
       </c>
       <c r="E23">
-        <v>2.303864569417954</v>
+        <v>2.292962456601316</v>
       </c>
       <c r="F23">
-        <v>0.4611802971057486</v>
+        <v>0.41422726765893</v>
       </c>
       <c r="G23">
-        <v>0.3084198279946833</v>
+        <v>0.3644714842207719</v>
       </c>
       <c r="H23">
-        <v>0.03547447501205969</v>
+        <v>0.03389895631722117</v>
       </c>
       <c r="I23">
-        <v>0.02029740830516058</v>
+        <v>0.01775690074600877</v>
       </c>
       <c r="J23">
-        <v>0.2099612846969166</v>
+        <v>0.1493745733070142</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.06425054000090147</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.009151036283030045</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1585,48 +1717,54 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.045433536149972</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0.9098534930625704</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.031794239818055</v>
+        <v>5.020888234602296</v>
       </c>
       <c r="C24">
-        <v>1.461708307552954</v>
+        <v>1.514634311858913</v>
       </c>
       <c r="D24">
-        <v>0.09743047299387086</v>
+        <v>0.1016294625649863</v>
       </c>
       <c r="E24">
-        <v>1.975245549056595</v>
+        <v>1.968176916112697</v>
       </c>
       <c r="F24">
-        <v>0.4079560260666497</v>
+        <v>0.3908148350894365</v>
       </c>
       <c r="G24">
-        <v>0.2720363946633029</v>
+        <v>0.2602862352708399</v>
       </c>
       <c r="H24">
-        <v>0.02652885901008961</v>
+        <v>0.02556985426120528</v>
       </c>
       <c r="I24">
-        <v>0.0143136401305437</v>
+        <v>0.01297820481227063</v>
       </c>
       <c r="J24">
-        <v>0.2013709713883429</v>
+        <v>0.2248315812445227</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.07167130769536589</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.010323761331267</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1638,48 +1776,54 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0.9498029882700791</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0.9027531479935931</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.140530739230485</v>
+        <v>4.135177817612714</v>
       </c>
       <c r="C25">
-        <v>1.22721313725134</v>
+        <v>1.255347741690855</v>
       </c>
       <c r="D25">
-        <v>0.08120161572416862</v>
+        <v>0.08367164135192695</v>
       </c>
       <c r="E25">
-        <v>1.623926372454406</v>
+        <v>1.619475724598018</v>
       </c>
       <c r="F25">
-        <v>0.3540954988540221</v>
+        <v>0.345150415828094</v>
       </c>
       <c r="G25">
-        <v>0.235978081863955</v>
+        <v>0.2216047472381248</v>
       </c>
       <c r="H25">
-        <v>0.01804667827851025</v>
+        <v>0.01749707153002222</v>
       </c>
       <c r="I25">
-        <v>0.009020585142902604</v>
+        <v>0.008546275804973469</v>
       </c>
       <c r="J25">
-        <v>0.1939360246890089</v>
+        <v>0.2276287595265174</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.08010202036111647</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.01187016745822467</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1691,7 +1835,13 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>0.8572119668297802</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0.8337182666907381</v>
       </c>
     </row>
   </sheetData>
